--- a/PROYECTO MR/IPS/PPS-MR-HU_GE.ST.005 Controlar el vencimiento de plazo de subsanación.xlsx
+++ b/PROYECTO MR/IPS/PPS-MR-HU_GE.ST.005 Controlar el vencimiento de plazo de subsanación.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VUCE\DocumentoVuce\PROYECTO MR\IPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75907C3-CC41-469C-AC76-61F6FF8A6BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581A5DBA-33DB-45EB-9E12-DA05327F7EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formato 2.0" sheetId="6" r:id="rId1"/>
@@ -3856,9 +3856,6 @@
     <t>Emitir Abandono</t>
   </si>
   <si>
-    <t>CA 003: Resultado de la evaluación de la SUCE</t>
-  </si>
-  <si>
     <t>HU_GE.ST.005
 3.3</t>
   </si>
@@ -4184,6 +4181,9 @@
 •	Se registra el indicador NV.
 •	Se ocultan las acciones.</t>
     </r>
+  </si>
+  <si>
+    <t>CA 004: Resultado de la evaluación de la SUCE</t>
   </si>
 </sst>
 </file>
@@ -37554,8 +37554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2084E2-F98F-4FEB-8194-E5E04144CF46}">
   <dimension ref="A3:AX87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -39379,7 +39379,7 @@
       <c r="Y44" s="111"/>
       <c r="Z44" s="111"/>
       <c r="AA44" s="111" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AB44" s="112"/>
       <c r="AC44" s="112"/>
@@ -39514,11 +39514,11 @@
       </c>
       <c r="E46" s="108"/>
       <c r="F46" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G46" s="110"/>
       <c r="H46" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I46" s="110"/>
       <c r="J46" s="107" t="s">
@@ -39541,7 +39541,7 @@
       </c>
       <c r="T46" s="108"/>
       <c r="U46" s="111" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V46" s="111"/>
       <c r="W46" s="111"/>
@@ -39549,7 +39549,7 @@
       <c r="Y46" s="111"/>
       <c r="Z46" s="111"/>
       <c r="AA46" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB46" s="112"/>
       <c r="AC46" s="112"/>
@@ -39580,10 +39580,10 @@
         <v>313</v>
       </c>
       <c r="AV46" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW46" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX46" s="44" t="s">
         <v>64</v>
@@ -39599,11 +39599,11 @@
       </c>
       <c r="E47" s="108"/>
       <c r="F47" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G47" s="110"/>
       <c r="H47" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I47" s="110"/>
       <c r="J47" s="107" t="s">
@@ -39626,7 +39626,7 @@
       </c>
       <c r="T47" s="108"/>
       <c r="U47" s="111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="V47" s="111"/>
       <c r="W47" s="111"/>
@@ -39634,7 +39634,7 @@
       <c r="Y47" s="111"/>
       <c r="Z47" s="111"/>
       <c r="AA47" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB47" s="112"/>
       <c r="AC47" s="112"/>
@@ -39665,10 +39665,10 @@
         <v>313</v>
       </c>
       <c r="AV47" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW47" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX47" s="44" t="s">
         <v>64</v>
@@ -39684,11 +39684,11 @@
       </c>
       <c r="E48" s="108"/>
       <c r="F48" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G48" s="110"/>
       <c r="H48" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I48" s="110"/>
       <c r="J48" s="107" t="s">
@@ -39711,7 +39711,7 @@
       </c>
       <c r="T48" s="108"/>
       <c r="U48" s="111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V48" s="111"/>
       <c r="W48" s="111"/>
@@ -39719,7 +39719,7 @@
       <c r="Y48" s="111"/>
       <c r="Z48" s="111"/>
       <c r="AA48" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB48" s="112"/>
       <c r="AC48" s="112"/>
@@ -39750,10 +39750,10 @@
         <v>313</v>
       </c>
       <c r="AV48" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW48" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX48" s="44" t="s">
         <v>64</v>
@@ -39769,11 +39769,11 @@
       </c>
       <c r="E49" s="108"/>
       <c r="F49" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G49" s="110"/>
       <c r="H49" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I49" s="110"/>
       <c r="J49" s="107" t="s">
@@ -39796,7 +39796,7 @@
       </c>
       <c r="T49" s="108"/>
       <c r="U49" s="111" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="V49" s="111"/>
       <c r="W49" s="111"/>
@@ -39804,7 +39804,7 @@
       <c r="Y49" s="111"/>
       <c r="Z49" s="111"/>
       <c r="AA49" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB49" s="112"/>
       <c r="AC49" s="112"/>
@@ -39835,10 +39835,10 @@
         <v>313</v>
       </c>
       <c r="AV49" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW49" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX49" s="44" t="s">
         <v>64</v>
@@ -39854,11 +39854,11 @@
       </c>
       <c r="E50" s="108"/>
       <c r="F50" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G50" s="110"/>
       <c r="H50" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I50" s="110"/>
       <c r="J50" s="107" t="s">
@@ -39881,7 +39881,7 @@
       </c>
       <c r="T50" s="108"/>
       <c r="U50" s="111" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="V50" s="111"/>
       <c r="W50" s="111"/>
@@ -39889,7 +39889,7 @@
       <c r="Y50" s="111"/>
       <c r="Z50" s="111"/>
       <c r="AA50" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB50" s="112"/>
       <c r="AC50" s="112"/>
@@ -39920,10 +39920,10 @@
         <v>313</v>
       </c>
       <c r="AV50" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW50" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX50" s="44" t="s">
         <v>275</v>
@@ -39939,11 +39939,11 @@
       </c>
       <c r="E51" s="108"/>
       <c r="F51" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G51" s="110"/>
       <c r="H51" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I51" s="110"/>
       <c r="J51" s="107" t="s">
@@ -39966,7 +39966,7 @@
       </c>
       <c r="T51" s="108"/>
       <c r="U51" s="111" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="V51" s="111"/>
       <c r="W51" s="111"/>
@@ -39974,7 +39974,7 @@
       <c r="Y51" s="111"/>
       <c r="Z51" s="111"/>
       <c r="AA51" s="111" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AB51" s="112"/>
       <c r="AC51" s="112"/>
@@ -40005,10 +40005,10 @@
         <v>313</v>
       </c>
       <c r="AV51" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW51" s="99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AX51" s="44" t="s">
         <v>275</v>
@@ -40024,11 +40024,11 @@
       </c>
       <c r="E52" s="108"/>
       <c r="F52" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G52" s="110"/>
       <c r="H52" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I52" s="110"/>
       <c r="J52" s="107" t="s">
@@ -40051,7 +40051,7 @@
       </c>
       <c r="T52" s="108"/>
       <c r="U52" s="111" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V52" s="111"/>
       <c r="W52" s="111"/>
@@ -40059,7 +40059,7 @@
       <c r="Y52" s="111"/>
       <c r="Z52" s="111"/>
       <c r="AA52" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB52" s="112"/>
       <c r="AC52" s="112"/>
@@ -40090,10 +40090,10 @@
         <v>313</v>
       </c>
       <c r="AV52" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW52" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX52" s="44" t="s">
         <v>64</v>
@@ -40109,11 +40109,11 @@
       </c>
       <c r="E53" s="108"/>
       <c r="F53" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G53" s="110"/>
       <c r="H53" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I53" s="110"/>
       <c r="J53" s="107" t="s">
@@ -40136,7 +40136,7 @@
       </c>
       <c r="T53" s="108"/>
       <c r="U53" s="111" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V53" s="111"/>
       <c r="W53" s="111"/>
@@ -40144,7 +40144,7 @@
       <c r="Y53" s="111"/>
       <c r="Z53" s="111"/>
       <c r="AA53" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB53" s="112"/>
       <c r="AC53" s="112"/>
@@ -40175,10 +40175,10 @@
         <v>313</v>
       </c>
       <c r="AV53" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW53" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX53" s="44" t="s">
         <v>64</v>
@@ -40194,11 +40194,11 @@
       </c>
       <c r="E54" s="108"/>
       <c r="F54" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G54" s="110"/>
       <c r="H54" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I54" s="110"/>
       <c r="J54" s="107" t="s">
@@ -40221,7 +40221,7 @@
       </c>
       <c r="T54" s="108"/>
       <c r="U54" s="111" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="V54" s="111"/>
       <c r="W54" s="111"/>
@@ -40229,7 +40229,7 @@
       <c r="Y54" s="111"/>
       <c r="Z54" s="111"/>
       <c r="AA54" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB54" s="112"/>
       <c r="AC54" s="112"/>
@@ -40260,10 +40260,10 @@
         <v>313</v>
       </c>
       <c r="AV54" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW54" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX54" s="44" t="s">
         <v>64</v>
@@ -40279,11 +40279,11 @@
       </c>
       <c r="E55" s="108"/>
       <c r="F55" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G55" s="110"/>
       <c r="H55" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I55" s="110"/>
       <c r="J55" s="107" t="s">
@@ -40306,7 +40306,7 @@
       </c>
       <c r="T55" s="108"/>
       <c r="U55" s="111" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V55" s="111"/>
       <c r="W55" s="111"/>
@@ -40314,7 +40314,7 @@
       <c r="Y55" s="111"/>
       <c r="Z55" s="111"/>
       <c r="AA55" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB55" s="112"/>
       <c r="AC55" s="112"/>
@@ -40345,10 +40345,10 @@
         <v>313</v>
       </c>
       <c r="AV55" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW55" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX55" s="44" t="s">
         <v>64</v>
@@ -40364,11 +40364,11 @@
       </c>
       <c r="E56" s="108"/>
       <c r="F56" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G56" s="110"/>
       <c r="H56" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I56" s="110"/>
       <c r="J56" s="107" t="s">
@@ -40391,7 +40391,7 @@
       </c>
       <c r="T56" s="108"/>
       <c r="U56" s="111" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="V56" s="111"/>
       <c r="W56" s="111"/>
@@ -40399,7 +40399,7 @@
       <c r="Y56" s="111"/>
       <c r="Z56" s="111"/>
       <c r="AA56" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB56" s="112"/>
       <c r="AC56" s="112"/>
@@ -40430,10 +40430,10 @@
         <v>313</v>
       </c>
       <c r="AV56" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW56" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX56" s="44" t="s">
         <v>275</v>
@@ -40449,11 +40449,11 @@
       </c>
       <c r="E57" s="108"/>
       <c r="F57" s="109" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G57" s="110"/>
       <c r="H57" s="109" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="I57" s="110"/>
       <c r="J57" s="107" t="s">
@@ -40476,7 +40476,7 @@
       </c>
       <c r="T57" s="108"/>
       <c r="U57" s="111" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="V57" s="111"/>
       <c r="W57" s="111"/>
@@ -40484,7 +40484,7 @@
       <c r="Y57" s="111"/>
       <c r="Z57" s="111"/>
       <c r="AA57" s="111" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AB57" s="112"/>
       <c r="AC57" s="112"/>
@@ -40515,10 +40515,10 @@
         <v>313</v>
       </c>
       <c r="AV57" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW57" s="99" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AX57" s="44" t="s">
         <v>275</v>
@@ -40542,7 +40542,7 @@
       </c>
       <c r="I58" s="110"/>
       <c r="J58" s="107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K58" s="108"/>
       <c r="L58" s="108"/>
@@ -40561,7 +40561,7 @@
       </c>
       <c r="T58" s="108"/>
       <c r="U58" s="111" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="V58" s="111"/>
       <c r="W58" s="111"/>
@@ -40569,7 +40569,7 @@
       <c r="Y58" s="111"/>
       <c r="Z58" s="111"/>
       <c r="AA58" s="111" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB58" s="112"/>
       <c r="AC58" s="112"/>
@@ -40600,10 +40600,10 @@
         <v>313</v>
       </c>
       <c r="AV58" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW58" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AX58" s="44" t="s">
         <v>64</v>
@@ -40627,7 +40627,7 @@
       </c>
       <c r="I59" s="110"/>
       <c r="J59" s="107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K59" s="108"/>
       <c r="L59" s="108"/>
@@ -40646,7 +40646,7 @@
       </c>
       <c r="T59" s="108"/>
       <c r="U59" s="111" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="V59" s="111"/>
       <c r="W59" s="111"/>
@@ -40654,7 +40654,7 @@
       <c r="Y59" s="111"/>
       <c r="Z59" s="111"/>
       <c r="AA59" s="111" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB59" s="112"/>
       <c r="AC59" s="112"/>
@@ -40685,10 +40685,10 @@
         <v>313</v>
       </c>
       <c r="AV59" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW59" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AX59" s="44" t="s">
         <v>64</v>
@@ -40712,7 +40712,7 @@
       </c>
       <c r="I60" s="110"/>
       <c r="J60" s="107" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="K60" s="108"/>
       <c r="L60" s="108"/>
@@ -40731,7 +40731,7 @@
       </c>
       <c r="T60" s="108"/>
       <c r="U60" s="111" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="V60" s="111"/>
       <c r="W60" s="111"/>
@@ -40739,7 +40739,7 @@
       <c r="Y60" s="111"/>
       <c r="Z60" s="111"/>
       <c r="AA60" s="111" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AB60" s="112"/>
       <c r="AC60" s="112"/>
@@ -40770,10 +40770,10 @@
         <v>313</v>
       </c>
       <c r="AV60" s="98" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AW60" s="98" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AX60" s="44" t="s">
         <v>275</v>
@@ -41736,40 +41736,6 @@
       <c r="AS87" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A43:AX60" xr:uid="{DB2084E2-F98F-4FEB-8194-E5E04144CF46}">
-    <filterColumn colId="1" showButton="0"/>
-    <filterColumn colId="3" showButton="0"/>
-    <filterColumn colId="5" showButton="0"/>
-    <filterColumn colId="7" showButton="0"/>
-    <filterColumn colId="9" showButton="0"/>
-    <filterColumn colId="10" showButton="0"/>
-    <filterColumn colId="12" showButton="0"/>
-    <filterColumn colId="13" showButton="0"/>
-    <filterColumn colId="15" showButton="0"/>
-    <filterColumn colId="16" showButton="0"/>
-    <filterColumn colId="18" showButton="0"/>
-    <filterColumn colId="20" showButton="0"/>
-    <filterColumn colId="21" showButton="0"/>
-    <filterColumn colId="22" showButton="0"/>
-    <filterColumn colId="23" showButton="0"/>
-    <filterColumn colId="24" showButton="0"/>
-    <filterColumn colId="26" showButton="0"/>
-    <filterColumn colId="27" showButton="0"/>
-    <filterColumn colId="28" showButton="0"/>
-    <filterColumn colId="29" showButton="0"/>
-    <filterColumn colId="30" showButton="0"/>
-    <filterColumn colId="31" showButton="0"/>
-    <filterColumn colId="32" showButton="0"/>
-    <filterColumn colId="33" showButton="0"/>
-    <filterColumn colId="34" showButton="0"/>
-    <filterColumn colId="35" showButton="0"/>
-    <filterColumn colId="36" showButton="0"/>
-    <filterColumn colId="37" showButton="0"/>
-    <filterColumn colId="38" showButton="0"/>
-    <filterColumn colId="39" showButton="0"/>
-    <filterColumn colId="40" showButton="0"/>
-    <filterColumn colId="41" showButton="0"/>
-  </autoFilter>
   <mergeCells count="240">
     <mergeCell ref="AA59:AQ59"/>
     <mergeCell ref="AA58:AQ58"/>
